--- a/Unity/Assets/Config/Excel/Datas/__beans__.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/__beans__.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/icepower/Work/Projects/My/X-ET7/Unity/Assets/Config/LubanExcel/Datas/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/icepower/Work/Projects/My/X-ET7/Unity/Assets/Config/Excel/Datas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A92FF098-1CF1-5443-BBF2-37ED022A591E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6149C3F7-1C21-D948-BA13-953F90C4E5EE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="30400" windowHeight="16680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2740" yWindow="18880" windowWidth="21420" windowHeight="9760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="27">
   <si>
     <t>##var</t>
   </si>
@@ -74,6 +74,42 @@
   </si>
   <si>
     <t>注释</t>
+  </si>
+  <si>
+    <t>LocalizeConfig_EN</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ALocalizeConfig</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>key</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>LocalizeConfig_CHS</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>LocalizeConfig_CHT</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>TextCHS</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>TextCHT</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>TextEN</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -464,7 +500,7 @@
   <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="122" zoomScaleNormal="122" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
@@ -550,20 +586,61 @@
       </c>
     </row>
     <row r="4" spans="1:12">
-      <c r="B4" s="2"/>
+      <c r="B4" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
+      <c r="H4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="K4" s="2"/>
     </row>
     <row r="5" spans="1:12">
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
+      <c r="B5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="K5" s="2"/>
     </row>
     <row r="6" spans="1:12">
-      <c r="B6" s="2"/>
+      <c r="B6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="B7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="10" spans="1:12">
       <c r="B10" s="2"/>
